--- a/data/7225.xlsx
+++ b/data/7225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43171,6 +43171,41 @@
         <v>1234800</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7225</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>5536000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7225.xlsx
+++ b/data/7225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43206,6 +43206,41 @@
         <v>5536000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7225</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>340100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7225.xlsx
+++ b/data/7225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43241,6 +43241,41 @@
         <v>340100</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7225</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>156300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7225.xlsx
+++ b/data/7225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43276,6 +43276,41 @@
         <v>156300</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7225</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>892000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7225.xlsx
+++ b/data/7225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43311,6 +43311,41 @@
         <v>892000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7225</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>376200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7225.xlsx
+++ b/data/7225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43346,6 +43346,41 @@
         <v>376200</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7225</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>2200000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7225.xlsx
+++ b/data/7225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43381,6 +43381,41 @@
         <v>2200000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7225</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>410000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7225.xlsx
+++ b/data/7225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43416,6 +43416,41 @@
         <v>410000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7225</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>590400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7225.xlsx
+++ b/data/7225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43451,6 +43451,41 @@
         <v>590400</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7225</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>21133100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7225.xlsx
+++ b/data/7225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43486,6 +43486,41 @@
         <v>21133100</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7225</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>11175300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7225.xlsx
+++ b/data/7225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43521,6 +43521,41 @@
         <v>11175300</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7225</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>3100000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7225.xlsx
+++ b/data/7225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43556,6 +43556,41 @@
         <v>3100000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7225</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>3549000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7225.xlsx
+++ b/data/7225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43591,6 +43591,76 @@
         <v>3549000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7225</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>1106800</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7225</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>3007500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7225.xlsx
+++ b/data/7225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43661,6 +43661,76 @@
         <v>3007500</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7225</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>5292700</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7225</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>2140100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7225.xlsx
+++ b/data/7225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43731,6 +43731,41 @@
         <v>2140100</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7225</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>4850400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7225.xlsx
+++ b/data/7225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43766,6 +43766,41 @@
         <v>4850400</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7225</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>490000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7225.xlsx
+++ b/data/7225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43801,6 +43801,41 @@
         <v>490000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7225</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>5094300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7225.xlsx
+++ b/data/7225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43836,6 +43836,41 @@
         <v>5094300</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7225</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>3385600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7225.xlsx
+++ b/data/7225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43871,6 +43871,76 @@
         <v>3385600</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7225</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>5328600</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7225</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>2805000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7225.xlsx
+++ b/data/7225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43941,6 +43941,41 @@
         <v>2805000</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7225</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>9192600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7225.xlsx
+++ b/data/7225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43976,6 +43976,41 @@
         <v>9192600</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>7225</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>8268000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7225.xlsx
+++ b/data/7225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2442"/>
+  <dimension ref="A1:I2443"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86046,6 +86046,41 @@
         <v>8268000</v>
       </c>
     </row>
+    <row r="2443">
+      <c r="A2443" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2443" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2443" t="inlineStr">
+        <is>
+          <t>7225</t>
+        </is>
+      </c>
+      <c r="D2443" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E2443" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2443" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2443" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2443" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2443" t="n">
+        <v>9655300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7225.xlsx
+++ b/data/7225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2443"/>
+  <dimension ref="A1:I2444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86081,6 +86081,41 @@
         <v>9655300</v>
       </c>
     </row>
+    <row r="2444">
+      <c r="A2444" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2444" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2444" t="inlineStr">
+        <is>
+          <t>7225</t>
+        </is>
+      </c>
+      <c r="D2444" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E2444" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2444" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2444" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2444" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2444" t="n">
+        <v>10067200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7225.xlsx
+++ b/data/7225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2444"/>
+  <dimension ref="A1:I2445"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86116,6 +86116,41 @@
         <v>10067200</v>
       </c>
     </row>
+    <row r="2445">
+      <c r="A2445" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2445" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2445" t="inlineStr">
+        <is>
+          <t>7225</t>
+        </is>
+      </c>
+      <c r="D2445" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E2445" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2445" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2445" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2445" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2445" t="n">
+        <v>2500400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7225.xlsx
+++ b/data/7225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2445"/>
+  <dimension ref="A1:I2446"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86151,6 +86151,41 @@
         <v>2500400</v>
       </c>
     </row>
+    <row r="2446">
+      <c r="A2446" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2446" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2446" t="inlineStr">
+        <is>
+          <t>7225</t>
+        </is>
+      </c>
+      <c r="D2446" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E2446" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2446" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2446" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2446" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2446" t="n">
+        <v>11975400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7225.xlsx
+++ b/data/7225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2446"/>
+  <dimension ref="A1:I2447"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86186,6 +86186,41 @@
         <v>11975400</v>
       </c>
     </row>
+    <row r="2447">
+      <c r="A2447" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2447" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2447" t="inlineStr">
+        <is>
+          <t>7225</t>
+        </is>
+      </c>
+      <c r="D2447" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E2447" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2447" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2447" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2447" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2447" t="n">
+        <v>3751700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7225.xlsx
+++ b/data/7225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2447"/>
+  <dimension ref="A1:I2448"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86221,6 +86221,41 @@
         <v>3751700</v>
       </c>
     </row>
+    <row r="2448">
+      <c r="A2448" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2448" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2448" t="inlineStr">
+        <is>
+          <t>7225</t>
+        </is>
+      </c>
+      <c r="D2448" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E2448" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2448" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2448" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2448" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2448" t="n">
+        <v>631200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7225.xlsx
+++ b/data/7225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2448"/>
+  <dimension ref="A1:I2449"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86256,6 +86256,41 @@
         <v>631200</v>
       </c>
     </row>
+    <row r="2449">
+      <c r="A2449" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2449" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2449" t="inlineStr">
+        <is>
+          <t>7225</t>
+        </is>
+      </c>
+      <c r="D2449" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E2449" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2449" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2449" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2449" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2449" t="n">
+        <v>68200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7225.xlsx
+++ b/data/7225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2449"/>
+  <dimension ref="A1:I2450"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86291,6 +86291,41 @@
         <v>68200</v>
       </c>
     </row>
+    <row r="2450">
+      <c r="A2450" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2450" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2450" t="inlineStr">
+        <is>
+          <t>7225</t>
+        </is>
+      </c>
+      <c r="D2450" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E2450" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2450" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2450" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2450" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2450" t="n">
+        <v>4484500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7225.xlsx
+++ b/data/7225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2450"/>
+  <dimension ref="A1:I2451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86326,6 +86326,41 @@
         <v>4484500</v>
       </c>
     </row>
+    <row r="2451">
+      <c r="A2451" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2451" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2451" t="inlineStr">
+        <is>
+          <t>7225</t>
+        </is>
+      </c>
+      <c r="D2451" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E2451" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2451" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2451" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2451" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2451" t="n">
+        <v>410000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7225.xlsx
+++ b/data/7225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2451"/>
+  <dimension ref="A1:I2452"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86361,6 +86361,41 @@
         <v>410000</v>
       </c>
     </row>
+    <row r="2452">
+      <c r="A2452" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2452" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2452" t="inlineStr">
+        <is>
+          <t>7225</t>
+        </is>
+      </c>
+      <c r="D2452" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E2452" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2452" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2452" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2452" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2452" t="n">
+        <v>3727300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7225.xlsx
+++ b/data/7225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2452"/>
+  <dimension ref="A1:I2453"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86396,6 +86396,41 @@
         <v>3727300</v>
       </c>
     </row>
+    <row r="2453">
+      <c r="A2453" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2453" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2453" t="inlineStr">
+        <is>
+          <t>7225</t>
+        </is>
+      </c>
+      <c r="D2453" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E2453" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2453" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2453" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2453" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2453" t="n">
+        <v>16600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7225.xlsx
+++ b/data/7225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2453"/>
+  <dimension ref="A1:I2454"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86431,6 +86431,41 @@
         <v>16600</v>
       </c>
     </row>
+    <row r="2454">
+      <c r="A2454" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2454" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2454" t="inlineStr">
+        <is>
+          <t>7225</t>
+        </is>
+      </c>
+      <c r="D2454" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E2454" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2454" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2454" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2454" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2454" t="n">
+        <v>6269400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7225.xlsx
+++ b/data/7225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2454"/>
+  <dimension ref="A1:I2455"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86466,6 +86466,41 @@
         <v>6269400</v>
       </c>
     </row>
+    <row r="2455">
+      <c r="A2455" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2455" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2455" t="inlineStr">
+        <is>
+          <t>7225</t>
+        </is>
+      </c>
+      <c r="D2455" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E2455" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2455" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2455" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2455" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2455" t="n">
+        <v>945400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7225.xlsx
+++ b/data/7225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2455"/>
+  <dimension ref="A1:I2456"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86501,6 +86501,41 @@
         <v>945400</v>
       </c>
     </row>
+    <row r="2456">
+      <c r="A2456" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2456" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2456" t="inlineStr">
+        <is>
+          <t>7225</t>
+        </is>
+      </c>
+      <c r="D2456" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E2456" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2456" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2456" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2456" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2456" t="n">
+        <v>550000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7225.xlsx
+++ b/data/7225.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2456"/>
+  <dimension ref="A1:I2457"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86536,6 +86536,41 @@
         <v>550000</v>
       </c>
     </row>
+    <row r="2457">
+      <c r="A2457" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2457" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2457" t="inlineStr">
+        <is>
+          <t>7225</t>
+        </is>
+      </c>
+      <c r="D2457" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="E2457" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2457" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2457" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2457" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2457" t="n">
+        <v>245500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
